--- a/BDD/Structure de la BDD officielle.xlsx
+++ b/BDD/Structure de la BDD officielle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lunaj\OneDrive\Bureau\Projet_Mur_Vegetal\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF89A6E-B3F1-468F-B2A8-1F48428347F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09318C7-C98B-4E11-B99F-A6E27347551E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15200" windowHeight="6930" xr2:uid="{3014A5DB-8E14-4617-BD8F-5EB0810044A1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="121">
   <si>
     <t>Capteurs</t>
   </si>
@@ -44,265 +44,355 @@
     <t>String</t>
   </si>
   <si>
-    <t>idCapteur</t>
-  </si>
-  <si>
     <t>Nombre d'octets</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>typeCapteur[]</t>
-  </si>
-  <si>
-    <t>projet[]</t>
-  </si>
-  <si>
     <t>Commentaires</t>
   </si>
   <si>
+    <t>//MongoDB</t>
+  </si>
+  <si>
+    <t>//MongoDB: id unique</t>
+  </si>
+  <si>
+    <t>//id pour chacun des capteurs</t>
+  </si>
+  <si>
+    <t>//description du capteur</t>
+  </si>
+  <si>
+    <t>//date de lancement des mesures</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>//à coder en minutes</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>//liste des différents types de projets</t>
+  </si>
+  <si>
+    <t>Objet</t>
+  </si>
+  <si>
+    <t>//liste d'objets</t>
+  </si>
+  <si>
+    <t>//chaque capteur a sa propre version et il faut s'assurer que les données soient bien mises dans la BDD -&gt; au cas où il y aurait une mise à jour à faire</t>
+  </si>
+  <si>
+    <t>//pour lier les relevés à la collection Capteur</t>
+  </si>
+  <si>
+    <t>//temps de mesure</t>
+  </si>
+  <si>
+    <t>//facultatif: note que l'on peut ajouter si qqn trouve qu'il y a une valeur erronnée</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Version_protocole</t>
+  </si>
+  <si>
+    <t>//contient tous les id_messages avec leur message</t>
+  </si>
+  <si>
+    <t>//identifiant des messages</t>
+  </si>
+  <si>
+    <t>//vérification de la batterie</t>
+  </si>
+  <si>
+    <t>//prend tous les niveaux de batteries qui seront envoyés par le capteur</t>
+  </si>
+  <si>
+    <t>Plantes</t>
+  </si>
+  <si>
+    <t>//stockage de l'url pour chacune des images</t>
+  </si>
+  <si>
+    <t>//execution de l'action</t>
+  </si>
+  <si>
+    <t>//description de l'action</t>
+  </si>
+  <si>
+    <t>//nom de l'action</t>
+  </si>
+  <si>
+    <t>Releve</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>//nom de l'événement</t>
+  </si>
+  <si>
+    <t>//date inscrit dans l'événement</t>
+  </si>
+  <si>
+    <t>//date de lancement de l'affichage de l'événement</t>
+  </si>
+  <si>
+    <t>//date de fin de lancement de l'affichage de l'événement</t>
+  </si>
+  <si>
+    <t>//stockage de l'url pour chacune des images/vidéos et stocke le texte sachant que les trois sont facultatifs</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>//y mettre les url pour chaque image</t>
+  </si>
+  <si>
+    <t>//y mettre les url pour chaque vidéo</t>
+  </si>
+  <si>
+    <t>Ce qu'il y a dedans:</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>//poition de l'événement pour qu'ils puissent modifer la position dans leur affichage</t>
+  </si>
+  <si>
+    <t>//valeur</t>
+  </si>
+  <si>
+    <t>Groupe qui s'en occupe</t>
+  </si>
+  <si>
+    <t>timeStamp</t>
+  </si>
+  <si>
+    <t>//connection pour …</t>
+  </si>
+  <si>
+    <t>//position de la plante sur l'axe X</t>
+  </si>
+  <si>
+    <t>//position de la plante sur l'axe Y</t>
+  </si>
+  <si>
+    <t>//description de la plante</t>
+  </si>
+  <si>
+    <t>//nom de la plante</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>//verification de l'état</t>
+  </si>
+  <si>
+    <t>//verification d'affichage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//nom du tableau </t>
+  </si>
+  <si>
+    <t>//durée (sec)</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Data[]</t>
+  </si>
+  <si>
+    <t>Action[]</t>
+  </si>
+  <si>
+    <t>CompteARebours</t>
+  </si>
+  <si>
+    <t>//différencie les différentes pages</t>
+  </si>
+  <si>
+    <t>//stockage en chaîne des caracteres -&gt; stockage de l'url</t>
+  </si>
+  <si>
+    <t>//date de fin d'affichage (DERNIER DELAI)</t>
+  </si>
+  <si>
+    <t>//lancement du compte à rebours</t>
+  </si>
+  <si>
+    <t>//fin du compte à rebours</t>
+  </si>
+  <si>
+    <t>//stockage des img, videos et textes</t>
+  </si>
+  <si>
+    <t>//date de fin du média</t>
+  </si>
+  <si>
+    <t>//date de debut du media</t>
+  </si>
+  <si>
+    <t>//nom du media</t>
+  </si>
+  <si>
+    <t>//login -&gt; interface admin</t>
+  </si>
+  <si>
+    <t>//mot de passe (haché) -&gt; interface admin</t>
+  </si>
+  <si>
+    <t>ObjectId</t>
+  </si>
+  <si>
+    <t>Message[]</t>
+  </si>
+  <si>
+    <t>Payload Param[]</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Id </t>
+  </si>
+  <si>
+    <t>IdCapteur</t>
+  </si>
+  <si>
+    <t>TypeCapteur[]</t>
+  </si>
+  <si>
+    <t>Projet[]</t>
+  </si>
+  <si>
     <t>Nom</t>
   </si>
   <si>
-    <t xml:space="preserve">_id </t>
-  </si>
-  <si>
-    <t>//MongoDB</t>
-  </si>
-  <si>
-    <t>//MongoDB: id unique</t>
-  </si>
-  <si>
-    <t>//id pour chacun des capteurs</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>//description du capteur</t>
-  </si>
-  <si>
-    <t>date_capteur</t>
-  </si>
-  <si>
-    <t>timeStemp</t>
-  </si>
-  <si>
-    <t>//date de lancement des mesures</t>
-  </si>
-  <si>
-    <t>date_dernier_releves</t>
-  </si>
-  <si>
-    <t>batterie</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>niveau_batterie[]</t>
-  </si>
-  <si>
-    <t>delay_vieille</t>
-  </si>
-  <si>
-    <t>//à coder en minutes</t>
-  </si>
-  <si>
-    <t>Collections</t>
-  </si>
-  <si>
-    <t>//liste des différents types de projets</t>
-  </si>
-  <si>
-    <t>Objet</t>
-  </si>
-  <si>
-    <t>action[]</t>
-  </si>
-  <si>
-    <t>//liste d'objets</t>
-  </si>
-  <si>
-    <t>versions</t>
-  </si>
-  <si>
-    <t>//chaque capteur a sa propre version et il faut s'assurer que les données soient bien mises dans la BDD -&gt; au cas où il y aurait une mise à jour à faire</t>
-  </si>
-  <si>
-    <t>//pour lier les relevés à la collection Capteur</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>date_releves</t>
-  </si>
-  <si>
-    <t>//temps de mesure</t>
-  </si>
-  <si>
-    <t>//facultatif: note que l'on peut ajouter si qqn trouve qu'il y a une valeur erronnée</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>typeCapteur</t>
-  </si>
-  <si>
-    <t>fiabilité</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>descritpion</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>Version_protocole</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>//contient tous les id_messages avec leur message</t>
-  </si>
-  <si>
-    <t>//identifiant des messages</t>
-  </si>
-  <si>
-    <t>messages[]</t>
-  </si>
-  <si>
-    <t>//vérification de la batterie</t>
-  </si>
-  <si>
-    <t>//prend tous les niveaux de batteries qui seront envoyés par le capteur</t>
-  </si>
-  <si>
-    <t>type_message</t>
-  </si>
-  <si>
-    <t>payload Param[]</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>taille</t>
-  </si>
-  <si>
-    <t>Plantes</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>posX</t>
-  </si>
-  <si>
-    <t>posY</t>
-  </si>
-  <si>
-    <t>linkImg</t>
-  </si>
-  <si>
-    <t>//stockage de l'url pour chacune des images</t>
-  </si>
-  <si>
-    <t>//execution de l'action</t>
-  </si>
-  <si>
-    <t>//description de l'action</t>
-  </si>
-  <si>
-    <t>//nom de l'action</t>
-  </si>
-  <si>
-    <t>Releve</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>//nom de l'événement</t>
-  </si>
-  <si>
-    <t>date_event</t>
-  </si>
-  <si>
-    <t>//date inscrit dans l'événement</t>
-  </si>
-  <si>
-    <t>date_debut</t>
-  </si>
-  <si>
-    <t>date_fin</t>
-  </si>
-  <si>
-    <t>//date de lancement de l'affichage de l'événement</t>
-  </si>
-  <si>
-    <t>//date de fin de lancement de l'affichage de l'événement</t>
-  </si>
-  <si>
-    <t>data[]</t>
-  </si>
-  <si>
-    <t>linkVideo</t>
-  </si>
-  <si>
-    <t>texte</t>
-  </si>
-  <si>
-    <t>//stockage de l'url pour chacune des images/vidéos et stocke le texte sachant que les trois sont facultatifs</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>//login</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>//mot de passe (haché)</t>
-  </si>
-  <si>
-    <t>Social</t>
-  </si>
-  <si>
-    <t>insta</t>
-  </si>
-  <si>
-    <t>//y mettre les url pour chaque image</t>
-  </si>
-  <si>
-    <t>//y mettre les url pour chaque vidéo</t>
-  </si>
-  <si>
-    <t>Ce qu'il y a dedans:</t>
-  </si>
-  <si>
-    <t>Tableau</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>//poition de l'événement pour qu'ils puissent modifer la position dans leur affichage</t>
-  </si>
-  <si>
-    <t>//valeur</t>
-  </si>
-  <si>
-    <t>valeur</t>
+    <t>DateCapteur</t>
+  </si>
+  <si>
+    <t>DateDernierReleve</t>
+  </si>
+  <si>
+    <t>NiveauBatterie[]</t>
+  </si>
+  <si>
+    <t>Batterie</t>
+  </si>
+  <si>
+    <t>DelaisVieille</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Fonctionne</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>DateReleve</t>
+  </si>
+  <si>
+    <t>Valeur</t>
+  </si>
+  <si>
+    <t>TypeCapteur</t>
+  </si>
+  <si>
+    <t>Fiabilité</t>
+  </si>
+  <si>
+    <t>PosX</t>
+  </si>
+  <si>
+    <t>PosY</t>
+  </si>
+  <si>
+    <t>LinkImg</t>
+  </si>
+  <si>
+    <t>DateEvent</t>
+  </si>
+  <si>
+    <t>DateDebut</t>
+  </si>
+  <si>
+    <t>DateFin</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Mdp</t>
+  </si>
+  <si>
+    <t>UtilisateurHololens</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>PageWidget</t>
+  </si>
+  <si>
+    <t>Widget</t>
+  </si>
+  <si>
+    <t>DureeAffichage</t>
+  </si>
+  <si>
+    <t>EstAffiche</t>
+  </si>
+  <si>
+    <t>DureeCarroussel</t>
+  </si>
+  <si>
+    <t>DateDeb</t>
+  </si>
+  <si>
+    <t>Texte</t>
+  </si>
+  <si>
+    <t>DateButoir</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Descritpion</t>
+  </si>
+  <si>
+    <t>TypeMessage</t>
+  </si>
+  <si>
+    <t>PayloadParam[]</t>
+  </si>
+  <si>
+    <t>Taille</t>
+  </si>
+  <si>
+    <t>LinkVideo</t>
   </si>
 </sst>
 </file>
@@ -393,7 +483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -540,9 +630,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
       <top style="hair">
         <color auto="1"/>
@@ -552,28 +640,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
       <right style="hair">
         <color auto="1"/>
       </right>
@@ -605,11 +671,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -704,21 +820,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1062,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12839DC9-EC28-47A1-8C09-5DCCF04B0704}">
-  <dimension ref="B1:L42"/>
+  <dimension ref="B1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1076,732 +1228,1079 @@
     <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.36328125" customWidth="1"/>
     <col min="6" max="6" width="45.54296875" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.90625" customWidth="1"/>
     <col min="9" max="9" width="21.54296875" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="33" customWidth="1"/>
+    <col min="13" max="13" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>48</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>38</v>
+      <c r="C2" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="35"/>
       <c r="C3" s="17" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="17">
         <v>2</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="21" t="s">
-        <v>42</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="10"/>
       <c r="C4" s="17" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="23" t="s">
-        <v>43</v>
-      </c>
+      <c r="G4" s="46"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="10"/>
       <c r="C5" s="17" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="G5" s="46"/>
+      <c r="I5" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="27">
+        <v>117</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="27">
         <v>1</v>
       </c>
-      <c r="L5" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M5" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="10"/>
       <c r="C6" s="17" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="28" t="s">
-        <v>52</v>
-      </c>
+      <c r="G6" s="46"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="28"/>
+        <v>118</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="L6" s="28"/>
-    </row>
-    <row r="7" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="10"/>
       <c r="C7" s="17" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>53</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="I7" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="J7" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="27"/>
       <c r="L7" s="27"/>
-    </row>
-    <row r="8" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10"/>
       <c r="C8" s="17" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="28" t="s">
-        <v>54</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="28">
+        <v>119</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="28">
         <v>1</v>
       </c>
-      <c r="L8" s="28"/>
-    </row>
-    <row r="9" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10"/>
       <c r="C9" s="17" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
-      <c r="H9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>59</v>
+      <c r="G9" s="46"/>
+      <c r="I9" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="J9" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="25"/>
+      <c r="M9" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
       <c r="C10" s="17" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="32" t="s">
-        <v>74</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L10" s="34"/>
+      <c r="M10" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10"/>
       <c r="C11" s="17" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="33" t="s">
-        <v>75</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="19"/>
       <c r="L11" s="19"/>
-    </row>
-    <row r="12" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
       <c r="C12" s="17" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
       <c r="C13" s="17" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B14" s="13"/>
-      <c r="C14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16" t="s">
+      <c r="C14" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="I14" s="56"/>
+    </row>
+    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="13"/>
+      <c r="C15" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="51" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="10"/>
-      <c r="C16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="17">
-        <v>2</v>
-      </c>
-      <c r="F16" s="17" t="s">
+      <c r="E15" s="51"/>
+      <c r="F15" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="C16" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="I16" s="56"/>
+    </row>
+    <row r="17" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
       <c r="C17" s="17" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="17"/>
+        <v>5</v>
+      </c>
+      <c r="E17" s="17">
+        <v>2</v>
+      </c>
       <c r="F17" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="I17" s="56"/>
+    </row>
+    <row r="18" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
       <c r="C18" s="17" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G18" s="46"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
       <c r="C19" s="17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="17">
-        <v>2</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E19" s="17"/>
       <c r="F19" s="17" t="s">
-        <v>89</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
       <c r="C20" s="17" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="17">
+        <v>2</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="10"/>
+      <c r="C21" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="14"/>
-      <c r="C21" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="46"/>
+    </row>
+    <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="14"/>
+      <c r="C22" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="11"/>
-      <c r="C23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="31" t="s">
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="53"/>
+    </row>
+    <row r="24" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="13"/>
+      <c r="C24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="47"/>
+    </row>
+    <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="14"/>
+      <c r="C25" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="10"/>
-      <c r="C25" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="10"/>
-      <c r="C26" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="53"/>
+    </row>
+    <row r="27" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10"/>
       <c r="C27" s="17" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="F27" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="46"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="10"/>
       <c r="C28" s="17" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="F28" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="46"/>
       <c r="H28" s="36"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="38"/>
-    </row>
-    <row r="29" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="11"/>
-      <c r="C29" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="18" t="s">
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="10"/>
+      <c r="C29" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="46"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="10"/>
+      <c r="C30" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="46"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+    </row>
+    <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="11"/>
+      <c r="C31" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="42"/>
-    </row>
-    <row r="30" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-    </row>
-    <row r="31" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="10"/>
-      <c r="C31" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21" t="s">
-        <v>66</v>
-      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="28"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B32" s="10"/>
-      <c r="C32" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="20" t="s">
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+    </row>
+    <row r="32" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="53"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="41"/>
+    </row>
+    <row r="33" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="10"/>
+      <c r="C33" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="43"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B33" s="10"/>
-      <c r="C33" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="E33" s="21"/>
-      <c r="F33" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="43"/>
-    </row>
-    <row r="34" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="F33" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="46"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="41"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="10"/>
       <c r="C34" s="20" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="46"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="41"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B35" s="10"/>
+      <c r="C35" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="46"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="41"/>
+    </row>
+    <row r="36" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B36" s="10"/>
+      <c r="C36" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="46"/>
+    </row>
+    <row r="37" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B37" s="10"/>
+      <c r="C37" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="59"/>
+      <c r="F37" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="61"/>
+    </row>
+    <row r="38" spans="2:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="15"/>
+      <c r="C38" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="50"/>
+      <c r="F38" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="53"/>
+    </row>
+    <row r="40" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="54"/>
+      <c r="C40" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="30"/>
+      <c r="F40" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B41" s="54"/>
+      <c r="C41" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="46"/>
+    </row>
+    <row r="42" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="54"/>
+      <c r="C42" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="46"/>
+    </row>
+    <row r="43" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="53"/>
+    </row>
+    <row r="44" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="54"/>
+      <c r="C44" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B45" s="54"/>
+      <c r="C45" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="54"/>
+      <c r="C46" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="53"/>
+    </row>
+    <row r="48" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="54"/>
+      <c r="C48" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="21"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B49" s="54"/>
+      <c r="C49" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="54"/>
+      <c r="C50" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="21"/>
+    </row>
+    <row r="51" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="54"/>
+      <c r="C51" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="2:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="53"/>
+    </row>
+    <row r="53" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="54"/>
+      <c r="C53" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="43"/>
-    </row>
-    <row r="35" spans="2:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="10"/>
-      <c r="C35" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="43"/>
-    </row>
-    <row r="36" spans="2:12" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="15"/>
-      <c r="C36" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="10"/>
-      <c r="C38" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="11"/>
-      <c r="C39" s="22" t="s">
+      <c r="G53" s="21"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="54"/>
+      <c r="C54" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" s="21"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B55" s="54"/>
+      <c r="C55" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="21"/>
+    </row>
+    <row r="56" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="54"/>
+      <c r="C56" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" s="21"/>
+    </row>
+    <row r="57" spans="2:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="11"/>
-      <c r="C41" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-    </row>
-    <row r="42" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
+      <c r="D57" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="53"/>
+    </row>
+    <row r="58" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="54"/>
+      <c r="C58" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B59" s="54"/>
+      <c r="C59" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B60" s="54"/>
+      <c r="C60" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="21"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B61" s="54"/>
+      <c r="C61" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" s="21"/>
+    </row>
+    <row r="62" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="11"/>
+      <c r="C62" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" s="23"/>
+    </row>
+    <row r="63" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
